--- a/Koparanov/info.xlsx
+++ b/Koparanov/info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krisi\Desktop\UKTC\Koparanov\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5303B09-82C2-4F94-A1B1-B030B3E1A3CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F7551C-2DC5-43F8-B0E4-B8E53AA44F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="876" yWindow="2160" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>Пореден номер</t>
   </si>
@@ -54,9 +54,6 @@
     <t>изпълнение</t>
   </si>
   <si>
-    <t>№1</t>
-  </si>
-  <si>
     <t>№2</t>
   </si>
   <si>
@@ -90,9 +87,6 @@
     <t>.\chapter_1\System.png</t>
   </si>
   <si>
-    <t>№5</t>
-  </si>
-  <si>
     <t>№6</t>
   </si>
   <si>
@@ -120,9 +114,6 @@
     <t>№14</t>
   </si>
   <si>
-    <t>№15</t>
-  </si>
-  <si>
     <t>стр.103 - 1 зад</t>
   </si>
   <si>
@@ -157,6 +148,159 @@
   </si>
   <si>
     <t>.\chapter_2\escapeCharacter.png</t>
+  </si>
+  <si>
+    <t>стр.104 - 7 зад</t>
+  </si>
+  <si>
+    <t>.\chapter_2\src\chapter_2\triangle.java</t>
+  </si>
+  <si>
+    <t>.\chapter_2\src\chapter_2\heart.java</t>
+  </si>
+  <si>
+    <t>стр.105 - 8 зад</t>
+  </si>
+  <si>
+    <t>.\chapter_2\src\chapter_2\EmployeeRecord.java</t>
+  </si>
+  <si>
+    <t>стр.105 - 9 зад</t>
+  </si>
+  <si>
+    <t>.\chapter_2\src\chapter_2\numSwap.java</t>
+  </si>
+  <si>
+    <t>стр.105 - 10 зад</t>
+  </si>
+  <si>
+    <t>№5 - ch2</t>
+  </si>
+  <si>
+    <t>№1 - ch1</t>
+  </si>
+  <si>
+    <t>№15 - ch3</t>
+  </si>
+  <si>
+    <t>№16</t>
+  </si>
+  <si>
+    <t>№17</t>
+  </si>
+  <si>
+    <t>№18</t>
+  </si>
+  <si>
+    <t>№19</t>
+  </si>
+  <si>
+    <t>№20</t>
+  </si>
+  <si>
+    <t>№21</t>
+  </si>
+  <si>
+    <t>№22</t>
+  </si>
+  <si>
+    <t>№23</t>
+  </si>
+  <si>
+    <t>№24</t>
+  </si>
+  <si>
+    <t>№25</t>
+  </si>
+  <si>
+    <t>№26</t>
+  </si>
+  <si>
+    <t>№27</t>
+  </si>
+  <si>
+    <t>№28</t>
+  </si>
+  <si>
+    <t>№29</t>
+  </si>
+  <si>
+    <t>№30</t>
+  </si>
+  <si>
+    <t>№31</t>
+  </si>
+  <si>
+    <t>№32</t>
+  </si>
+  <si>
+    <t>№33</t>
+  </si>
+  <si>
+    <t>№34</t>
+  </si>
+  <si>
+    <t>№35</t>
+  </si>
+  <si>
+    <t>№36</t>
+  </si>
+  <si>
+    <t>стр.125 - 1 зад</t>
+  </si>
+  <si>
+    <t>стр.125 - 2 зад</t>
+  </si>
+  <si>
+    <t>стр.125 - 3 зад</t>
+  </si>
+  <si>
+    <t>стр.125 - 4 зад</t>
+  </si>
+  <si>
+    <t>стр.125 - 5 зад</t>
+  </si>
+  <si>
+    <t>стр.125 - 6 зад</t>
+  </si>
+  <si>
+    <t>стр.125 - 7 зад</t>
+  </si>
+  <si>
+    <t>стр.125 - 8 зад</t>
+  </si>
+  <si>
+    <t>стр.125 - 9 зад</t>
+  </si>
+  <si>
+    <t>стр.125 - 10 зад</t>
+  </si>
+  <si>
+    <t>стр.125 - 11 зад</t>
+  </si>
+  <si>
+    <t>стр.125 - 12 зад</t>
+  </si>
+  <si>
+    <t>стр.125 - 13 зад</t>
+  </si>
+  <si>
+    <t>.\chapter_3\src\chapter_3\main1.java</t>
+  </si>
+  <si>
+    <t>.\chapter_3\src\chapter_3\main2.java</t>
+  </si>
+  <si>
+    <t>.\chapter_3\src\chapter_3\main3.java</t>
+  </si>
+  <si>
+    <t>.\chapter_3\src\chapter_3\main4.java</t>
+  </si>
+  <si>
+    <t>.\chapter_3\src\chapter_3\main5.java</t>
+  </si>
+  <si>
+    <t>.\chapter_3\src\chapter_3\main6.java</t>
   </si>
 </sst>
 </file>
@@ -498,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -536,10 +680,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1">
         <v>0.53888888888888886</v>
@@ -552,15 +696,15 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1">
         <v>0.54097222222222219</v>
@@ -569,19 +713,19 @@
         <v>0.54513888888888895</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E16" si="0">D3-C3</f>
+        <f t="shared" ref="E3:E28" si="0">D3-C3</f>
         <v>4.1666666666667629E-3</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1">
         <v>0.54513888888888895</v>
@@ -594,15 +738,15 @@
         <v>3.4722222222220989E-3</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
         <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
       </c>
       <c r="C5" s="1">
         <v>0.54861111111111105</v>
@@ -615,15 +759,15 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1">
         <v>0.53472222222222221</v>
@@ -636,15 +780,15 @@
         <v>6.2499999999999778E-3</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1">
         <v>0.54236111111111118</v>
@@ -657,15 +801,15 @@
         <v>6.9444444444433095E-4</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C8" s="1">
         <v>0.54375000000000007</v>
@@ -678,15 +822,15 @@
         <v>1.388888888888884E-3</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C9" s="1">
         <v>0.54513888888888895</v>
@@ -699,15 +843,15 @@
         <v>6.9444444444433095E-4</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C10" s="1">
         <v>0.54583333333333328</v>
@@ -720,15 +864,15 @@
         <v>3.4722222222223209E-3</v>
       </c>
       <c r="F10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C11" s="1">
         <v>0.55138888888888882</v>
@@ -741,52 +885,346 @@
         <v>2.7777777777778789E-3</v>
       </c>
       <c r="F11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.5541666666666667</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.55694444444444446</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.7777777777777679E-3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.55694444444444446</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.56111111111111112</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1666666666666519E-3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.56111111111111112</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.56458333333333333</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.4722222222222099E-3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.57638888888888895</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.4722222222223209E-3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>48</v>
+      </c>
+      <c r="B16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.54791666666666672</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" si="0"/>
+        <v>6.2500000000000888E-3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.54791666666666672</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666519E-3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.55972222222222223</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="0"/>
+        <v>7.6388888888888618E-3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.55972222222222223</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.56388888888888888</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666519E-3</v>
+      </c>
+      <c r="F19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.56388888888888888</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="0"/>
+        <v>9.0277777777777457E-3</v>
+      </c>
+      <c r="F20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.57500000000000007</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.57916666666666672</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666519E-3</v>
+      </c>
+      <c r="F21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" s="1">
+        <f>D28-C28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/Koparanov/info.xlsx
+++ b/Koparanov/info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krisi\Desktop\UKTC\Koparanov\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F7551C-2DC5-43F8-B0E4-B8E53AA44F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9CF8F9-3C01-4749-954F-425E8B8A667F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="876" yWindow="2160" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
   <si>
     <t>Пореден номер</t>
   </si>
@@ -219,9 +219,6 @@
     <t>№27</t>
   </si>
   <si>
-    <t>№28</t>
-  </si>
-  <si>
     <t>№29</t>
   </si>
   <si>
@@ -261,30 +258,6 @@
     <t>стр.125 - 5 зад</t>
   </si>
   <si>
-    <t>стр.125 - 6 зад</t>
-  </si>
-  <si>
-    <t>стр.125 - 7 зад</t>
-  </si>
-  <si>
-    <t>стр.125 - 8 зад</t>
-  </si>
-  <si>
-    <t>стр.125 - 9 зад</t>
-  </si>
-  <si>
-    <t>стр.125 - 10 зад</t>
-  </si>
-  <si>
-    <t>стр.125 - 11 зад</t>
-  </si>
-  <si>
-    <t>стр.125 - 12 зад</t>
-  </si>
-  <si>
-    <t>стр.125 - 13 зад</t>
-  </si>
-  <si>
     <t>.\chapter_3\src\chapter_3\main1.java</t>
   </si>
   <si>
@@ -301,6 +274,150 @@
   </si>
   <si>
     <t>.\chapter_3\src\chapter_3\main6.java</t>
+  </si>
+  <si>
+    <t>.\chapter_3\src\chapter_3\main7.java</t>
+  </si>
+  <si>
+    <t>.\chapter_3\src\chapter_3\main8.java</t>
+  </si>
+  <si>
+    <t>.\chapter_3\src\chapter_3\main9.java</t>
+  </si>
+  <si>
+    <t>.\chapter_3\src\chapter_3\main10.java</t>
+  </si>
+  <si>
+    <t>.\chapter_3\src\chapter_3\main11.java</t>
+  </si>
+  <si>
+    <t>.\chapter_3\src\chapter_3\main12.java</t>
+  </si>
+  <si>
+    <t>.\chapter_3\src\chapter_3\main13.java</t>
+  </si>
+  <si>
+    <t>№28 - ch4</t>
+  </si>
+  <si>
+    <t>стр.126 - 6 зад</t>
+  </si>
+  <si>
+    <t>стр.126 - 7 зад</t>
+  </si>
+  <si>
+    <t>стр.126 - 8 зад</t>
+  </si>
+  <si>
+    <t>стр.126 - 9 зад</t>
+  </si>
+  <si>
+    <t>стр.126 - 10 зад</t>
+  </si>
+  <si>
+    <t>стр.126 - 11 зад</t>
+  </si>
+  <si>
+    <t>стр.126 - 12 зад</t>
+  </si>
+  <si>
+    <t>стр.126 - 13 зад</t>
+  </si>
+  <si>
+    <t>стр.153 - 3 зад</t>
+  </si>
+  <si>
+    <t xml:space="preserve">стр.153 - 2 зад </t>
+  </si>
+  <si>
+    <t>стр.153 - 1 зад</t>
+  </si>
+  <si>
+    <t>стр.154 - 4 зад</t>
+  </si>
+  <si>
+    <t>№37</t>
+  </si>
+  <si>
+    <t>№38</t>
+  </si>
+  <si>
+    <t>№39</t>
+  </si>
+  <si>
+    <t>№40</t>
+  </si>
+  <si>
+    <t>№41</t>
+  </si>
+  <si>
+    <t>№42</t>
+  </si>
+  <si>
+    <t>№43</t>
+  </si>
+  <si>
+    <t>№44</t>
+  </si>
+  <si>
+    <t>№45</t>
+  </si>
+  <si>
+    <t>№46</t>
+  </si>
+  <si>
+    <t>№47</t>
+  </si>
+  <si>
+    <t>№48</t>
+  </si>
+  <si>
+    <t>№49</t>
+  </si>
+  <si>
+    <t>№50</t>
+  </si>
+  <si>
+    <t>№51</t>
+  </si>
+  <si>
+    <t>№52</t>
+  </si>
+  <si>
+    <t>№53</t>
+  </si>
+  <si>
+    <t>№54</t>
+  </si>
+  <si>
+    <t>стр.154 - 7 зад</t>
+  </si>
+  <si>
+    <t>стр.154 - 5 зад</t>
+  </si>
+  <si>
+    <t>стр.154 - 6 зад</t>
+  </si>
+  <si>
+    <t>.\chapter_4\src\chapter_4\main02.java</t>
+  </si>
+  <si>
+    <t>.\chapter_4\src\chapter_4\main01.java</t>
+  </si>
+  <si>
+    <t>.\chapter_4\src\chapter_4\main03.java</t>
+  </si>
+  <si>
+    <t>.\chapter_4\src\chapter_4\main04.java</t>
+  </si>
+  <si>
+    <t>.\chapter_4\src\chapter_4\main05.java</t>
+  </si>
+  <si>
+    <t>.\chapter_4\src\chapter_4\main06.java</t>
+  </si>
+  <si>
+    <t>.\chapter_4\src\chapter_4\main07.java</t>
   </si>
 </sst>
 </file>
@@ -642,10 +759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -658,7 +775,7 @@
     <col min="6" max="6" width="109.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -713,7 +830,7 @@
         <v>0.54513888888888895</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E28" si="0">D3-C3</f>
+        <f t="shared" ref="E3:E29" si="0">D3-C3</f>
         <v>4.1666666666667629E-3</v>
       </c>
       <c r="F3" t="s">
@@ -762,469 +879,762 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.53472222222222221</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.54097222222222219</v>
-      </c>
-      <c r="E6" s="1">
-        <f>D6-C6</f>
-        <v>6.2499999999999778E-3</v>
-      </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
-    </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1">
-        <v>0.54236111111111118</v>
+        <v>0.53472222222222221</v>
       </c>
       <c r="D7" s="1">
-        <v>0.54305555555555551</v>
+        <v>0.54097222222222219</v>
       </c>
       <c r="E7" s="1">
         <f>D7-C7</f>
-        <v>6.9444444444433095E-4</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>29</v>
+        <v>6.2499999999999778E-3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1">
-        <v>0.54375000000000007</v>
+        <v>0.54236111111111118</v>
       </c>
       <c r="D8" s="1">
-        <v>0.54513888888888895</v>
+        <v>0.54305555555555551</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" ref="E8" si="1">D8-C8</f>
-        <v>1.388888888888884E-3</v>
-      </c>
-      <c r="F8" t="s">
-        <v>30</v>
+        <f>D8-C8</f>
+        <v>6.9444444444433095E-4</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1">
+        <v>0.54375000000000007</v>
+      </c>
+      <c r="D9" s="1">
         <v>0.54513888888888895</v>
       </c>
-      <c r="D9" s="1">
-        <v>0.54583333333333328</v>
-      </c>
       <c r="E9" s="1">
-        <f t="shared" si="0"/>
-        <v>6.9444444444433095E-4</v>
+        <f t="shared" ref="E9" si="1">D9-C9</f>
+        <v>1.388888888888884E-3</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="1">
+        <v>0.54513888888888895</v>
+      </c>
+      <c r="D10" s="1">
         <v>0.54583333333333328</v>
       </c>
-      <c r="D10" s="1">
-        <v>0.5493055555555556</v>
-      </c>
       <c r="E10" s="1">
         <f t="shared" si="0"/>
-        <v>3.4722222222223209E-3</v>
+        <v>6.9444444444433095E-4</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C11" s="1">
-        <v>0.55138888888888882</v>
+        <v>0.54583333333333328</v>
       </c>
       <c r="D11" s="1">
-        <v>0.5541666666666667</v>
+        <v>0.5493055555555556</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="0"/>
-        <v>2.7777777777778789E-3</v>
+        <v>3.4722222222223209E-3</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C12" s="1">
+        <v>0.55138888888888882</v>
+      </c>
+      <c r="D12" s="1">
         <v>0.5541666666666667</v>
       </c>
-      <c r="D12" s="1">
-        <v>0.55694444444444446</v>
-      </c>
       <c r="E12" s="1">
         <f t="shared" si="0"/>
-        <v>2.7777777777777679E-3</v>
+        <v>2.7777777777778789E-3</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C13" s="1">
+        <v>0.5541666666666667</v>
+      </c>
+      <c r="D13" s="1">
         <v>0.55694444444444446</v>
       </c>
-      <c r="D13" s="1">
-        <v>0.56111111111111112</v>
-      </c>
       <c r="E13" s="1">
         <f t="shared" si="0"/>
-        <v>4.1666666666666519E-3</v>
+        <v>2.7777777777777679E-3</v>
       </c>
       <c r="F13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C14" s="1">
+        <v>0.55694444444444446</v>
+      </c>
+      <c r="D14" s="1">
         <v>0.56111111111111112</v>
       </c>
-      <c r="D14" s="1">
-        <v>0.56458333333333333</v>
-      </c>
       <c r="E14" s="1">
         <f t="shared" si="0"/>
-        <v>3.4722222222222099E-3</v>
+        <v>4.1666666666666519E-3</v>
       </c>
       <c r="F14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C15" s="1">
-        <v>0.57291666666666663</v>
+        <v>0.56111111111111112</v>
       </c>
       <c r="D15" s="1">
-        <v>0.57638888888888895</v>
+        <v>0.56458333333333333</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" si="0"/>
-        <v>3.4722222222223209E-3</v>
+        <v>3.4722222222222099E-3</v>
       </c>
       <c r="F15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C16" s="1">
-        <v>0.54166666666666663</v>
+        <v>0.57291666666666663</v>
       </c>
       <c r="D16" s="1">
-        <v>0.54791666666666672</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" si="0"/>
-        <v>6.2500000000000888E-3</v>
+        <v>3.4722222222223209E-3</v>
       </c>
       <c r="F16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0.54791666666666672</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.55208333333333337</v>
-      </c>
-      <c r="E17" s="1">
-        <f t="shared" si="0"/>
-        <v>4.1666666666666519E-3</v>
-      </c>
-      <c r="F17" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C18" s="1">
-        <v>0.55208333333333337</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="D18" s="1">
-        <v>0.55972222222222223</v>
+        <v>0.54791666666666672</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" si="0"/>
-        <v>7.6388888888888618E-3</v>
+        <v>6.2500000000000888E-3</v>
       </c>
       <c r="F18" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C19" s="1">
-        <v>0.55972222222222223</v>
+        <v>0.54791666666666672</v>
       </c>
       <c r="D19" s="1">
-        <v>0.56388888888888888</v>
+        <v>0.55208333333333337</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" si="0"/>
         <v>4.1666666666666519E-3</v>
       </c>
       <c r="F19" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C20" s="1">
-        <v>0.56388888888888888</v>
+        <v>0.55208333333333337</v>
       </c>
       <c r="D20" s="1">
-        <v>0.57291666666666663</v>
+        <v>0.55972222222222223</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" si="0"/>
-        <v>9.0277777777777457E-3</v>
+        <v>7.6388888888888618E-3</v>
       </c>
       <c r="F20" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C21" s="1">
-        <v>0.57500000000000007</v>
+        <v>0.55972222222222223</v>
       </c>
       <c r="D21" s="1">
-        <v>0.57916666666666672</v>
+        <v>0.56388888888888888</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" si="0"/>
         <v>4.1666666666666519E-3</v>
       </c>
       <c r="F21" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>73</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.56388888888888888</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.57291666666666663</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.0277777777777457E-3</v>
+      </c>
+      <c r="F22" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>88</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.57500000000000007</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.57916666666666672</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1666666666666519E-3</v>
+      </c>
+      <c r="F23" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>89</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.53819444444444442</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.53819444444444442</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>90</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.53819444444444442</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.54375000000000007</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.5555555555556468E-3</v>
+      </c>
+      <c r="F25" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B26" t="s">
-        <v>80</v>
+        <v>91</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.54375000000000007</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.54583333333333328</v>
       </c>
       <c r="E26" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333332149E-3</v>
+      </c>
+      <c r="F26" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B27" t="s">
-        <v>81</v>
+        <v>92</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.54583333333333328</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.54791666666666672</v>
       </c>
       <c r="E27" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.083333333333437E-3</v>
+      </c>
+      <c r="F27" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B28" t="s">
-        <v>82</v>
+        <v>93</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.54791666666666672</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.54999999999999993</v>
       </c>
       <c r="E28" s="1">
-        <f>D28-C28</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2.0833333333332149E-3</v>
+      </c>
+      <c r="F28" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>59</v>
+      </c>
+      <c r="B29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.54999999999999993</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="0"/>
+        <v>2.083333333333437E-3</v>
+      </c>
+      <c r="F29" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>63</v>
+        <v>60</v>
+      </c>
+      <c r="B30" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.5541666666666667</v>
+      </c>
+      <c r="E30" s="1">
+        <f>D30-C30</f>
+        <v>2.0833333333333259E-3</v>
+      </c>
+      <c r="F30" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.5541666666666667</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.55694444444444446</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" ref="E31:E51" si="2">D32-C32</f>
+        <v>2.7777777777777679E-3</v>
+      </c>
+      <c r="F32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.56180555555555556</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" si="2"/>
+        <v>6.2499999999999778E-3</v>
+      </c>
+      <c r="F33" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.56180555555555556</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.56388888888888888</v>
+      </c>
+      <c r="E34" s="1">
+        <f t="shared" si="2"/>
+        <v>2.0833333333333259E-3</v>
+      </c>
+      <c r="F34" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" t="s">
+        <v>99</v>
+      </c>
+      <c r="E35" s="1">
+        <f>D35-C35</f>
+        <v>0</v>
+      </c>
+      <c r="F35" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="B36" t="s">
+        <v>119</v>
+      </c>
+      <c r="E36" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F36" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="B37" t="s">
+        <v>120</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F37" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="B38" t="s">
+        <v>118</v>
+      </c>
+      <c r="E38" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F38" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="E39" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>69</v>
+      <c r="E40" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>100</v>
+      </c>
+      <c r="E41" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>101</v>
+      </c>
+      <c r="E42" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>102</v>
+      </c>
+      <c r="E43" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>103</v>
+      </c>
+      <c r="E44" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>104</v>
+      </c>
+      <c r="E45" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>105</v>
+      </c>
+      <c r="E46" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>106</v>
+      </c>
+      <c r="E47" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>107</v>
+      </c>
+      <c r="E48" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>108</v>
+      </c>
+      <c r="E49" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>109</v>
+      </c>
+      <c r="E50" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>110</v>
+      </c>
+      <c r="E51" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/Koparanov/info.xlsx
+++ b/Koparanov/info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krisi\Desktop\UKTC\Koparanov\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9CF8F9-3C01-4749-954F-425E8B8A667F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F7ADB4-99F1-415C-90CC-E3CDC99C0115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -237,9 +237,6 @@
     <t>№34</t>
   </si>
   <si>
-    <t>№35</t>
-  </si>
-  <si>
     <t>№36</t>
   </si>
   <si>
@@ -418,6 +415,9 @@
   </si>
   <si>
     <t>.\chapter_4\src\chapter_4\main07.java</t>
+  </si>
+  <si>
+    <t>№35 - ch5</t>
   </si>
 </sst>
 </file>
@@ -759,10 +759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1094,7 +1094,7 @@
         <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C18" s="1">
         <v>0.54166666666666663</v>
@@ -1107,7 +1107,7 @@
         <v>6.2500000000000888E-3</v>
       </c>
       <c r="F18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1115,7 +1115,7 @@
         <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C19" s="1">
         <v>0.54791666666666672</v>
@@ -1128,7 +1128,7 @@
         <v>4.1666666666666519E-3</v>
       </c>
       <c r="F19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1136,7 +1136,7 @@
         <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C20" s="1">
         <v>0.55208333333333337</v>
@@ -1149,7 +1149,7 @@
         <v>7.6388888888888618E-3</v>
       </c>
       <c r="F20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1157,7 +1157,7 @@
         <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C21" s="1">
         <v>0.55972222222222223</v>
@@ -1170,7 +1170,7 @@
         <v>4.1666666666666519E-3</v>
       </c>
       <c r="F21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1178,7 +1178,7 @@
         <v>52</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C22" s="1">
         <v>0.56388888888888888</v>
@@ -1191,7 +1191,7 @@
         <v>9.0277777777777457E-3</v>
       </c>
       <c r="F22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1199,7 +1199,7 @@
         <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C23" s="1">
         <v>0.57500000000000007</v>
@@ -1212,7 +1212,7 @@
         <v>4.1666666666666519E-3</v>
       </c>
       <c r="F23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1220,7 +1220,7 @@
         <v>54</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C24" s="1">
         <v>0.53819444444444442</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1241,7 +1241,7 @@
         <v>55</v>
       </c>
       <c r="B25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C25" s="1">
         <v>0.53819444444444442</v>
@@ -1254,7 +1254,7 @@
         <v>5.5555555555556468E-3</v>
       </c>
       <c r="F25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1262,7 +1262,7 @@
         <v>56</v>
       </c>
       <c r="B26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C26" s="1">
         <v>0.54375000000000007</v>
@@ -1275,7 +1275,7 @@
         <v>2.0833333333332149E-3</v>
       </c>
       <c r="F26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1283,7 +1283,7 @@
         <v>57</v>
       </c>
       <c r="B27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C27" s="1">
         <v>0.54583333333333328</v>
@@ -1296,7 +1296,7 @@
         <v>2.083333333333437E-3</v>
       </c>
       <c r="F27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1304,7 +1304,7 @@
         <v>58</v>
       </c>
       <c r="B28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C28" s="1">
         <v>0.54791666666666672</v>
@@ -1317,7 +1317,7 @@
         <v>2.0833333333332149E-3</v>
       </c>
       <c r="F28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1325,7 +1325,7 @@
         <v>59</v>
       </c>
       <c r="B29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C29" s="1">
         <v>0.54999999999999993</v>
@@ -1338,7 +1338,7 @@
         <v>2.083333333333437E-3</v>
       </c>
       <c r="F29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1346,7 +1346,7 @@
         <v>60</v>
       </c>
       <c r="B30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C30" s="1">
         <v>0.55208333333333337</v>
@@ -1359,15 +1359,15 @@
         <v>2.0833333333333259E-3</v>
       </c>
       <c r="F30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C32" s="1">
         <v>0.5541666666666667</v>
@@ -1376,11 +1376,11 @@
         <v>0.55694444444444446</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" ref="E31:E51" si="2">D32-C32</f>
+        <f t="shared" ref="E32:E52" si="2">D32-C32</f>
         <v>2.7777777777777679E-3</v>
       </c>
       <c r="F32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1388,7 +1388,7 @@
         <v>61</v>
       </c>
       <c r="B33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C33" s="1">
         <v>0.55555555555555558</v>
@@ -1401,7 +1401,7 @@
         <v>6.2499999999999778E-3</v>
       </c>
       <c r="F33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1409,7 +1409,7 @@
         <v>62</v>
       </c>
       <c r="B34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C34" s="1">
         <v>0.56180555555555556</v>
@@ -1422,7 +1422,7 @@
         <v>2.0833333333333259E-3</v>
       </c>
       <c r="F34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1430,14 +1430,20 @@
         <v>63</v>
       </c>
       <c r="B35" t="s">
-        <v>99</v>
+        <v>98</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.56388888888888888</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.56944444444444442</v>
       </c>
       <c r="E35" s="1">
         <f>D35-C35</f>
-        <v>0</v>
+        <v>5.5555555555555358E-3</v>
       </c>
       <c r="F35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1445,14 +1451,20 @@
         <v>64</v>
       </c>
       <c r="B36" t="s">
-        <v>119</v>
+        <v>118</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.57638888888888895</v>
       </c>
       <c r="E36" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.9444444444445308E-3</v>
       </c>
       <c r="F36" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1460,14 +1472,20 @@
         <v>65</v>
       </c>
       <c r="B37" t="s">
-        <v>120</v>
+        <v>119</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.58333333333333337</v>
       </c>
       <c r="E37" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.9444444444444198E-3</v>
       </c>
       <c r="F37" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -1475,28 +1493,25 @@
         <v>66</v>
       </c>
       <c r="B38" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.59722222222222221</v>
       </c>
       <c r="E38" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.388888888888884E-2</v>
       </c>
       <c r="F38" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>67</v>
-      </c>
-      <c r="E39" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="E40" s="1">
         <f t="shared" si="2"/>
@@ -1505,7 +1520,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="E41" s="1">
         <f t="shared" si="2"/>
@@ -1514,7 +1529,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E42" s="1">
         <f t="shared" si="2"/>
@@ -1523,7 +1538,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E43" s="1">
         <f t="shared" si="2"/>
@@ -1532,7 +1547,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E44" s="1">
         <f t="shared" si="2"/>
@@ -1541,7 +1556,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E45" s="1">
         <f t="shared" si="2"/>
@@ -1550,7 +1565,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E46" s="1">
         <f t="shared" si="2"/>
@@ -1559,7 +1574,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E47" s="1">
         <f t="shared" si="2"/>
@@ -1568,7 +1583,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E48" s="1">
         <f t="shared" si="2"/>
@@ -1577,7 +1592,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E49" s="1">
         <f t="shared" si="2"/>
@@ -1586,7 +1601,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E50" s="1">
         <f t="shared" si="2"/>
@@ -1595,7 +1610,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E51" s="1">
         <f t="shared" si="2"/>
@@ -1604,37 +1619,46 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>111</v>
+        <v>109</v>
+      </c>
+      <c r="E52" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>117</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/Koparanov/info.xlsx
+++ b/Koparanov/info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krisi\Desktop\UKTC\Koparanov\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F7ADB4-99F1-415C-90CC-E3CDC99C0115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF652CD-8C6C-4B46-88D8-DD0BF3F12797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="140">
   <si>
     <t>Пореден номер</t>
   </si>
@@ -60,24 +60,12 @@
     <t>№3</t>
   </si>
   <si>
-    <t>стр.83 - 1 зад</t>
-  </si>
-  <si>
     <t>https://docs.oracle.com/javase/6/docs/api/</t>
   </si>
   <si>
-    <t>стр.83 - 2 зад</t>
-  </si>
-  <si>
-    <t>стр.83 - 3 зад</t>
-  </si>
-  <si>
     <t>№4</t>
   </si>
   <si>
-    <t>стр.84 - 4 зад</t>
-  </si>
-  <si>
     <t>.\chapter_1\cmd.png</t>
   </si>
   <si>
@@ -114,75 +102,36 @@
     <t>№14</t>
   </si>
   <si>
-    <t>стр.103 - 1 зад</t>
-  </si>
-  <si>
     <t>.\chapter_2\var.png</t>
   </si>
   <si>
-    <t>стр.104 - 2 зад</t>
-  </si>
-  <si>
     <t>34.567839023 и 12.345 - float/double   8923.1234857 и 3456.091 - double, за да се избегне загубата на точност.</t>
   </si>
   <si>
     <t>int hexValue = 0x100;</t>
   </si>
   <si>
-    <t>стр.104 - 3 зад</t>
-  </si>
-  <si>
     <t>boolean isMale = true;</t>
   </si>
   <si>
-    <t>стр.104 - 4 зад</t>
-  </si>
-  <si>
-    <t>стр.104 - 5 зад</t>
-  </si>
-  <si>
     <t>.\chapter_2\concatenation.png</t>
   </si>
   <si>
-    <t>стр.104 - 6 зад</t>
-  </si>
-  <si>
     <t>.\chapter_2\escapeCharacter.png</t>
   </si>
   <si>
-    <t>стр.104 - 7 зад</t>
-  </si>
-  <si>
     <t>.\chapter_2\src\chapter_2\triangle.java</t>
   </si>
   <si>
     <t>.\chapter_2\src\chapter_2\heart.java</t>
   </si>
   <si>
-    <t>стр.105 - 8 зад</t>
-  </si>
-  <si>
     <t>.\chapter_2\src\chapter_2\EmployeeRecord.java</t>
   </si>
   <si>
-    <t>стр.105 - 9 зад</t>
-  </si>
-  <si>
     <t>.\chapter_2\src\chapter_2\numSwap.java</t>
   </si>
   <si>
-    <t>стр.105 - 10 зад</t>
-  </si>
-  <si>
-    <t>№5 - ch2</t>
-  </si>
-  <si>
-    <t>№1 - ch1</t>
-  </si>
-  <si>
-    <t>№15 - ch3</t>
-  </si>
-  <si>
     <t>№16</t>
   </si>
   <si>
@@ -240,21 +189,6 @@
     <t>№36</t>
   </si>
   <si>
-    <t>стр.125 - 1 зад</t>
-  </si>
-  <si>
-    <t>стр.125 - 2 зад</t>
-  </si>
-  <si>
-    <t>стр.125 - 3 зад</t>
-  </si>
-  <si>
-    <t>стр.125 - 4 зад</t>
-  </si>
-  <si>
-    <t>стр.125 - 5 зад</t>
-  </si>
-  <si>
     <t>.\chapter_3\src\chapter_3\main1.java</t>
   </si>
   <si>
@@ -294,45 +228,6 @@
     <t>.\chapter_3\src\chapter_3\main13.java</t>
   </si>
   <si>
-    <t>№28 - ch4</t>
-  </si>
-  <si>
-    <t>стр.126 - 6 зад</t>
-  </si>
-  <si>
-    <t>стр.126 - 7 зад</t>
-  </si>
-  <si>
-    <t>стр.126 - 8 зад</t>
-  </si>
-  <si>
-    <t>стр.126 - 9 зад</t>
-  </si>
-  <si>
-    <t>стр.126 - 10 зад</t>
-  </si>
-  <si>
-    <t>стр.126 - 11 зад</t>
-  </si>
-  <si>
-    <t>стр.126 - 12 зад</t>
-  </si>
-  <si>
-    <t>стр.126 - 13 зад</t>
-  </si>
-  <si>
-    <t>стр.153 - 3 зад</t>
-  </si>
-  <si>
-    <t xml:space="preserve">стр.153 - 2 зад </t>
-  </si>
-  <si>
-    <t>стр.153 - 1 зад</t>
-  </si>
-  <si>
-    <t>стр.154 - 4 зад</t>
-  </si>
-  <si>
     <t>№37</t>
   </si>
   <si>
@@ -354,9 +249,6 @@
     <t>№43</t>
   </si>
   <si>
-    <t>№44</t>
-  </si>
-  <si>
     <t>№45</t>
   </si>
   <si>
@@ -387,15 +279,6 @@
     <t>№54</t>
   </si>
   <si>
-    <t>стр.154 - 7 зад</t>
-  </si>
-  <si>
-    <t>стр.154 - 5 зад</t>
-  </si>
-  <si>
-    <t>стр.154 - 6 зад</t>
-  </si>
-  <si>
     <t>.\chapter_4\src\chapter_4\main02.java</t>
   </si>
   <si>
@@ -417,7 +300,160 @@
     <t>.\chapter_4\src\chapter_4\main07.java</t>
   </si>
   <si>
-    <t>№35 - ch5</t>
+    <t>.\chapter_5\src\chapter_5\main01.java</t>
+  </si>
+  <si>
+    <t>.\chapter_5\src\chapter_5\main02.java</t>
+  </si>
+  <si>
+    <t>.\chapter_5\src\chapter_5\main03.java</t>
+  </si>
+  <si>
+    <t>.\chapter_5\src\chapter_5\main04.java</t>
+  </si>
+  <si>
+    <t>.\chapter_5\src\chapter_5\main05.java</t>
+  </si>
+  <si>
+    <t>.\chapter_5\src\chapter_5\main06.java</t>
+  </si>
+  <si>
+    <t>.\chapter_5\src\chapter_5\main07.java</t>
+  </si>
+  <si>
+    <t>.\chapter_5\src\chapter_5\main08.java</t>
+  </si>
+  <si>
+    <t>.\chapter_5\src\chapter_5\main09.java</t>
+  </si>
+  <si>
+    <t>№55</t>
+  </si>
+  <si>
+    <t>№56</t>
+  </si>
+  <si>
+    <t>№57</t>
+  </si>
+  <si>
+    <t>№58</t>
+  </si>
+  <si>
+    <t>№59</t>
+  </si>
+  <si>
+    <t>№44 - ch6 - стр.186</t>
+  </si>
+  <si>
+    <t>зад 1</t>
+  </si>
+  <si>
+    <t>зад 4</t>
+  </si>
+  <si>
+    <t>зад 5</t>
+  </si>
+  <si>
+    <t>зад 2</t>
+  </si>
+  <si>
+    <t>зад 3</t>
+  </si>
+  <si>
+    <t>зад 6</t>
+  </si>
+  <si>
+    <t>зад 7</t>
+  </si>
+  <si>
+    <t>зад 8</t>
+  </si>
+  <si>
+    <t>зад 9</t>
+  </si>
+  <si>
+    <t>зад 10</t>
+  </si>
+  <si>
+    <t>зад 11</t>
+  </si>
+  <si>
+    <t>зад 12</t>
+  </si>
+  <si>
+    <t>зад 13</t>
+  </si>
+  <si>
+    <t>зад 14</t>
+  </si>
+  <si>
+    <t>зад 15</t>
+  </si>
+  <si>
+    <t>зад 16</t>
+  </si>
+  <si>
+    <t>№35 - ch5 - стр.167</t>
+  </si>
+  <si>
+    <t>№28 - ch4 - стр.153</t>
+  </si>
+  <si>
+    <t>№15 - ch3 - стр.125</t>
+  </si>
+  <si>
+    <t>№5 - ch2 - стр.103</t>
+  </si>
+  <si>
+    <t>№1 - ch1 - стр.83</t>
+  </si>
+  <si>
+    <t>.\chapter_6\src\chapter_6\main01.java</t>
+  </si>
+  <si>
+    <t>.\chapter_6\src\chapter_6\main02.java</t>
+  </si>
+  <si>
+    <t>.\chapter_6\src\chapter_6\main03.java</t>
+  </si>
+  <si>
+    <t>.\chapter_6\src\chapter_6\main04.java</t>
+  </si>
+  <si>
+    <t>.\chapter_6\src\chapter_6\main05.java</t>
+  </si>
+  <si>
+    <t>.\chapter_6\src\chapter_6\main06.java</t>
+  </si>
+  <si>
+    <t>.\chapter_6\src\chapter_6\main07.java</t>
+  </si>
+  <si>
+    <t>.\chapter_6\src\chapter_6\main08.java</t>
+  </si>
+  <si>
+    <t>.\chapter_6\src\chapter_6\main09.java</t>
+  </si>
+  <si>
+    <t>.\chapter_6\src\chapter_6\main10.java</t>
+  </si>
+  <si>
+    <t>.\chapter_6\src\chapter_6\main11.java</t>
+  </si>
+  <si>
+    <t>.\chapter_6\src\chapter_6\main12.java</t>
+  </si>
+  <si>
+    <t>.\chapter_6\src\chapter_6\main13.java</t>
+  </si>
+  <si>
+    <t>.\chapter_6\src\chapter_6\main14.java</t>
+  </si>
+  <si>
+    <t>.\chapter_6\src\chapter_6\main15.java</t>
+  </si>
+  <si>
+    <t>.\chapter_6\src\chapter_6\main16.java</t>
   </si>
 </sst>
 </file>
@@ -427,7 +463,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -445,6 +481,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -471,12 +515,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -759,10 +809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -775,897 +825,1273 @@
     <col min="6" max="6" width="109.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.53888888888888886</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.54027777777777775</v>
-      </c>
-      <c r="E2" s="1">
-        <f>D2-C2</f>
-        <v>1.388888888888884E-3</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.54097222222222219</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.54513888888888895</v>
-      </c>
-      <c r="E3" s="1">
-        <f t="shared" ref="E3:E29" si="0">D3-C3</f>
-        <v>4.1666666666667629E-3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-    </row>
+    <row r="3" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.53888888888888886</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.54027777777777775</v>
+      </c>
+      <c r="E4" s="1">
+        <f>D4-C4</f>
+        <v>1.388888888888884E-3</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.54097222222222219</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.54513888888888895</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" ref="E5:E31" si="0">D5-C5</f>
+        <v>4.1666666666667629E-3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="B6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="1">
         <v>0.54513888888888895</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D6" s="1">
         <v>0.54861111111111105</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E6" s="1">
         <f t="shared" si="0"/>
         <v>3.4722222222220989E-3</v>
       </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.54861111111111105</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.54999999999999993</v>
-      </c>
-      <c r="E5" s="1">
-        <f>D5-C5</f>
-        <v>1.388888888888884E-3</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
+      <c r="F6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="C7" s="1">
-        <v>0.53472222222222221</v>
+        <v>0.54861111111111105</v>
       </c>
       <c r="D7" s="1">
-        <v>0.54097222222222219</v>
+        <v>0.54999999999999993</v>
       </c>
       <c r="E7" s="1">
         <f>D7-C7</f>
-        <v>6.2499999999999778E-3</v>
+        <v>1.388888888888884E-3</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.54236111111111118</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.54305555555555551</v>
-      </c>
-      <c r="E8" s="1">
-        <f>D8-C8</f>
-        <v>6.9444444444433095E-4</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="C9" s="1">
-        <v>0.54375000000000007</v>
+        <v>0.53472222222222221</v>
       </c>
       <c r="D9" s="1">
-        <v>0.54513888888888895</v>
+        <v>0.54097222222222219</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" ref="E9" si="1">D9-C9</f>
-        <v>1.388888888888884E-3</v>
+        <f>D9-C9</f>
+        <v>6.2499999999999778E-3</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>106</v>
       </c>
       <c r="C10" s="1">
+        <v>0.54236111111111118</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.54305555555555551</v>
+      </c>
+      <c r="E10" s="1">
+        <f>D10-C10</f>
+        <v>6.9444444444433095E-4</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.54375000000000007</v>
+      </c>
+      <c r="D11" s="1">
         <v>0.54513888888888895</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E11" s="1">
+        <f t="shared" ref="E11" si="1">D11-C11</f>
+        <v>1.388888888888884E-3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.54513888888888895</v>
+      </c>
+      <c r="D12" s="1">
         <v>0.54583333333333328</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E12" s="1">
         <f t="shared" si="0"/>
         <v>6.9444444444433095E-4</v>
       </c>
-      <c r="F10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="1">
         <v>0.54583333333333328</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D13" s="1">
         <v>0.5493055555555556</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E13" s="1">
         <f t="shared" si="0"/>
         <v>3.4722222222223209E-3</v>
       </c>
-      <c r="F11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="1">
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="1">
         <v>0.55138888888888882</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D14" s="1">
         <v>0.5541666666666667</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E14" s="1">
         <f t="shared" si="0"/>
         <v>2.7777777777778789E-3</v>
       </c>
-      <c r="F12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="1">
+      <c r="F14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="1">
         <v>0.5541666666666667</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D15" s="1">
         <v>0.55694444444444446</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E15" s="1">
         <f t="shared" si="0"/>
         <v>2.7777777777777679E-3</v>
       </c>
-      <c r="F13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="1">
+      <c r="F15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="1">
         <v>0.55694444444444446</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D16" s="1">
         <v>0.56111111111111112</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E16" s="1">
         <f t="shared" si="0"/>
         <v>4.1666666666666519E-3</v>
       </c>
-      <c r="F14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="1">
+      <c r="F16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="1">
         <v>0.56111111111111112</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D17" s="1">
         <v>0.56458333333333333</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E17" s="1">
         <f t="shared" si="0"/>
         <v>3.4722222222222099E-3</v>
       </c>
-      <c r="F15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="1">
+      <c r="F17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" s="1">
         <v>0.57291666666666663</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D18" s="1">
         <v>0.57638888888888895</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E18" s="1">
         <f t="shared" si="0"/>
         <v>3.4722222222223209E-3</v>
       </c>
-      <c r="F16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="1">
+      <c r="F18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" s="1">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D20" s="1">
         <v>0.54791666666666672</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E20" s="1">
         <f t="shared" si="0"/>
         <v>6.2500000000000888E-3</v>
       </c>
-      <c r="F18" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0.54791666666666672</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0.55208333333333337</v>
-      </c>
-      <c r="E19" s="1">
-        <f t="shared" si="0"/>
-        <v>4.1666666666666519E-3</v>
-      </c>
-      <c r="F19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0.55208333333333337</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0.55972222222222223</v>
-      </c>
-      <c r="E20" s="1">
-        <f t="shared" si="0"/>
-        <v>7.6388888888888618E-3</v>
-      </c>
       <c r="F20" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="C21" s="1">
-        <v>0.55972222222222223</v>
+        <v>0.54791666666666672</v>
       </c>
       <c r="D21" s="1">
-        <v>0.56388888888888888</v>
+        <v>0.55208333333333337</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" si="0"/>
         <v>4.1666666666666519E-3</v>
       </c>
       <c r="F21" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="C22" s="1">
-        <v>0.56388888888888888</v>
+        <v>0.55208333333333337</v>
       </c>
       <c r="D22" s="1">
-        <v>0.57291666666666663</v>
+        <v>0.55972222222222223</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="0"/>
-        <v>9.0277777777777457E-3</v>
+        <v>7.6388888888888618E-3</v>
       </c>
       <c r="F22" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="C23" s="1">
-        <v>0.57500000000000007</v>
+        <v>0.55972222222222223</v>
       </c>
       <c r="D23" s="1">
-        <v>0.57916666666666672</v>
+        <v>0.56388888888888888</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" si="0"/>
         <v>4.1666666666666519E-3</v>
       </c>
       <c r="F23" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="C24" s="1">
-        <v>0.53819444444444442</v>
+        <v>0.56388888888888888</v>
       </c>
       <c r="D24" s="1">
-        <v>0.53819444444444442</v>
+        <v>0.57291666666666663</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.0277777777777457E-3</v>
       </c>
       <c r="F24" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="C25" s="1">
-        <v>0.53819444444444442</v>
+        <v>0.57500000000000007</v>
       </c>
       <c r="D25" s="1">
-        <v>0.54375000000000007</v>
+        <v>0.57916666666666672</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="0"/>
-        <v>5.5555555555556468E-3</v>
+        <v>4.1666666666666519E-3</v>
       </c>
       <c r="F25" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="C26" s="1">
-        <v>0.54375000000000007</v>
+        <v>0.53819444444444442</v>
       </c>
       <c r="D26" s="1">
-        <v>0.54583333333333328</v>
+        <v>0.53819444444444442</v>
       </c>
       <c r="E26" s="1">
         <f t="shared" si="0"/>
-        <v>2.0833333333332149E-3</v>
+        <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="C27" s="1">
-        <v>0.54583333333333328</v>
+        <v>0.53819444444444442</v>
       </c>
       <c r="D27" s="1">
-        <v>0.54791666666666672</v>
+        <v>0.54375000000000007</v>
       </c>
       <c r="E27" s="1">
         <f t="shared" si="0"/>
-        <v>2.083333333333437E-3</v>
+        <v>5.5555555555556468E-3</v>
       </c>
       <c r="F27" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="C28" s="1">
-        <v>0.54791666666666672</v>
+        <v>0.54375000000000007</v>
       </c>
       <c r="D28" s="1">
-        <v>0.54999999999999993</v>
+        <v>0.54583333333333328</v>
       </c>
       <c r="E28" s="1">
         <f t="shared" si="0"/>
         <v>2.0833333333332149E-3</v>
       </c>
       <c r="F28" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="C29" s="1">
-        <v>0.54999999999999993</v>
+        <v>0.54583333333333328</v>
       </c>
       <c r="D29" s="1">
-        <v>0.55208333333333337</v>
+        <v>0.54791666666666672</v>
       </c>
       <c r="E29" s="1">
         <f t="shared" si="0"/>
         <v>2.083333333333437E-3</v>
       </c>
       <c r="F29" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="C30" s="1">
+        <v>0.54791666666666672</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.54999999999999993</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0833333333332149E-3</v>
+      </c>
+      <c r="F30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.54999999999999993</v>
+      </c>
+      <c r="D31" s="1">
         <v>0.55208333333333337</v>
       </c>
-      <c r="D30" s="1">
-        <v>0.5541666666666667</v>
-      </c>
-      <c r="E30" s="1">
-        <f>D30-C30</f>
-        <v>2.0833333333333259E-3</v>
-      </c>
-      <c r="F30" t="s">
-        <v>85</v>
+      <c r="E31" s="1">
+        <f t="shared" si="0"/>
+        <v>2.083333333333437E-3</v>
+      </c>
+      <c r="F31" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="C32" s="1">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="D32" s="1">
         <v>0.5541666666666667</v>
       </c>
-      <c r="D32" s="1">
-        <v>0.55694444444444446</v>
-      </c>
       <c r="E32" s="1">
-        <f t="shared" ref="E32:E52" si="2">D32-C32</f>
-        <v>2.7777777777777679E-3</v>
+        <f>D32-C32</f>
+        <v>2.0833333333333259E-3</v>
       </c>
       <c r="F32" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>61</v>
-      </c>
-      <c r="B33" t="s">
-        <v>96</v>
-      </c>
-      <c r="C33" s="1">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="D33" s="1">
-        <v>0.56180555555555556</v>
-      </c>
-      <c r="E33" s="1">
-        <f t="shared" si="2"/>
-        <v>6.2499999999999778E-3</v>
-      </c>
-      <c r="F33" t="s">
-        <v>120</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="B34" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C34" s="1">
-        <v>0.56180555555555556</v>
+        <v>0.5541666666666667</v>
       </c>
       <c r="D34" s="1">
-        <v>0.56388888888888888</v>
+        <v>0.55694444444444446</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" si="2"/>
-        <v>2.0833333333333259E-3</v>
+        <f t="shared" ref="E34:E67" si="2">D34-C34</f>
+        <v>2.7777777777777679E-3</v>
       </c>
       <c r="F34" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="B35" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C35" s="1">
-        <v>0.56388888888888888</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="D35" s="1">
-        <v>0.56944444444444442</v>
+        <v>0.56180555555555556</v>
       </c>
       <c r="E35" s="1">
-        <f>D35-C35</f>
-        <v>5.5555555555555358E-3</v>
+        <f t="shared" si="2"/>
+        <v>6.2499999999999778E-3</v>
       </c>
       <c r="F35" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="B36" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C36" s="1">
-        <v>0.56944444444444442</v>
+        <v>0.56180555555555556</v>
       </c>
       <c r="D36" s="1">
-        <v>0.57638888888888895</v>
+        <v>0.56388888888888888</v>
       </c>
       <c r="E36" s="1">
         <f t="shared" si="2"/>
-        <v>6.9444444444445308E-3</v>
+        <v>2.0833333333333259E-3</v>
       </c>
       <c r="F36" t="s">
-        <v>124</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="B37" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="C37" s="1">
-        <v>0.57638888888888895</v>
+        <v>0.56388888888888888</v>
       </c>
       <c r="D37" s="1">
-        <v>0.58333333333333337</v>
+        <v>0.56944444444444442</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" si="2"/>
-        <v>6.9444444444444198E-3</v>
+        <f>D37-C37</f>
+        <v>5.5555555555555358E-3</v>
       </c>
       <c r="F37" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="B38" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C38" s="1">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="E38" s="1">
+        <f t="shared" si="2"/>
+        <v>6.9444444444445308E-3</v>
+      </c>
+      <c r="F38" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="D39" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D38" s="1">
-        <v>0.59722222222222221</v>
-      </c>
-      <c r="E38" s="1">
-        <f t="shared" si="2"/>
-        <v>1.388888888888884E-2</v>
-      </c>
-      <c r="F38" t="s">
-        <v>126</v>
+      <c r="E39" s="1">
+        <f t="shared" si="2"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="F39" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>127</v>
+        <v>49</v>
+      </c>
+      <c r="B40" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.59722222222222221</v>
       </c>
       <c r="E40" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>67</v>
-      </c>
-      <c r="E41" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="F40" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>99</v>
+        <v>119</v>
+      </c>
+      <c r="B42" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.5541666666666667</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0.55694444444444446</v>
       </c>
       <c r="E42" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.7777777777777679E-3</v>
+      </c>
+      <c r="F42" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>100</v>
+        <v>50</v>
+      </c>
+      <c r="B43" t="s">
+        <v>106</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0.56180555555555556</v>
       </c>
       <c r="E43" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.2499999999999778E-3</v>
+      </c>
+      <c r="F43" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>101</v>
+        <v>64</v>
+      </c>
+      <c r="B44" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.56180555555555556</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0.56388888888888888</v>
       </c>
       <c r="E44" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.0833333333333259E-3</v>
+      </c>
+      <c r="F44" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>102</v>
+        <v>65</v>
+      </c>
+      <c r="B45" t="s">
+        <v>104</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0.56388888888888888</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.56944444444444442</v>
       </c>
       <c r="E45" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.5555555555555358E-3</v>
+      </c>
+      <c r="F45" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>103</v>
+        <v>66</v>
+      </c>
+      <c r="B46" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0.57638888888888895</v>
       </c>
       <c r="E46" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.9444444444445308E-3</v>
+      </c>
+      <c r="F46" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>104</v>
+        <v>67</v>
+      </c>
+      <c r="B47" t="s">
+        <v>108</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.58333333333333337</v>
       </c>
       <c r="E47" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="F47" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>68</v>
+      </c>
+      <c r="B48" t="s">
+        <v>109</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="E48" s="1">
+        <f t="shared" si="2"/>
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="F48" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>69</v>
+      </c>
+      <c r="B49" t="s">
+        <v>110</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E49" s="1">
+        <f t="shared" si="2"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="F49" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>70</v>
+      </c>
+      <c r="B50" t="s">
+        <v>111</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="E50" s="1">
+        <f t="shared" si="2"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="F50" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0.55069444444444449</v>
+      </c>
+      <c r="E52" s="1">
+        <f>D52-C52</f>
+        <v>9.0277777777778567E-3</v>
+      </c>
+      <c r="F52" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>71</v>
+      </c>
+      <c r="B53" t="s">
+        <v>106</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0.55069444444444449</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="E53" s="1">
+        <f>D53-C53</f>
+        <v>1.388888888888884E-3</v>
+      </c>
+      <c r="F53" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>72</v>
+      </c>
+      <c r="B54" t="s">
+        <v>107</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0.55694444444444446</v>
+      </c>
+      <c r="E54" s="1">
+        <f>D54-C54</f>
+        <v>4.8611111111110938E-3</v>
+      </c>
+      <c r="F54" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>73</v>
+      </c>
+      <c r="B55" t="s">
+        <v>104</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0.55694444444444446</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0.55833333333333335</v>
+      </c>
+      <c r="E55" s="1">
+        <f t="shared" si="2"/>
+        <v>1.388888888888884E-3</v>
+      </c>
+      <c r="F55" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>74</v>
+      </c>
+      <c r="B56" t="s">
         <v>105</v>
       </c>
-      <c r="E48" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>106</v>
-      </c>
-      <c r="E49" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>107</v>
-      </c>
-      <c r="E50" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="C56" s="1">
+        <v>0.55833333333333335</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0.55972222222222223</v>
+      </c>
+      <c r="E56" s="1">
+        <f>D56-C56</f>
+        <v>1.388888888888884E-3</v>
+      </c>
+      <c r="F56" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>75</v>
+      </c>
+      <c r="B57" t="s">
         <v>108</v>
       </c>
-      <c r="E51" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+      <c r="C57" s="1">
+        <v>0.55972222222222223</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0.56111111111111112</v>
+      </c>
+      <c r="E57" s="1">
+        <f t="shared" si="2"/>
+        <v>1.388888888888884E-3</v>
+      </c>
+      <c r="F57" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>76</v>
+      </c>
+      <c r="B58" t="s">
         <v>109</v>
       </c>
-      <c r="E52" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+      <c r="C58" s="1">
+        <v>0.56111111111111112</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0.5625</v>
+      </c>
+      <c r="E58" s="1">
+        <f t="shared" si="2"/>
+        <v>1.388888888888884E-3</v>
+      </c>
+      <c r="F58" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>77</v>
+      </c>
+      <c r="B59" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+      <c r="C59" s="1">
+        <v>0.5625</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="E59" s="1">
+        <f t="shared" si="2"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="F59" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>78</v>
+      </c>
+      <c r="B60" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+      <c r="C60" s="1">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="E60" s="1">
+        <f t="shared" si="2"/>
+        <v>6.9444444444445308E-3</v>
+      </c>
+      <c r="F60" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>79</v>
+      </c>
+      <c r="B61" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+      <c r="C61" s="1">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E61" s="1">
+        <f t="shared" si="2"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="F61" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>80</v>
+      </c>
+      <c r="B62" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+      <c r="C62" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="E62" s="1">
+        <f t="shared" si="2"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="F62" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>97</v>
+      </c>
+      <c r="B63" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+      <c r="C63" s="1">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="E63" s="1">
+        <f t="shared" si="2"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="F63" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>98</v>
+      </c>
+      <c r="B64" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+      <c r="C64" s="1">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E64" s="1">
+        <f t="shared" si="2"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="F64" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>99</v>
+      </c>
+      <c r="B65" t="s">
         <v>116</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D65" s="1">
+        <v>0.60763888888888895</v>
+      </c>
+      <c r="E65" s="1">
+        <f t="shared" si="2"/>
+        <v>3.4722222222223209E-3</v>
+      </c>
+      <c r="F65" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>100</v>
+      </c>
+      <c r="B66" t="s">
+        <v>117</v>
+      </c>
+      <c r="C66" s="1">
+        <v>0.60763888888888895</v>
+      </c>
+      <c r="D66" s="1">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="E66" s="1">
+        <f t="shared" si="2"/>
+        <v>3.4722222222220989E-3</v>
+      </c>
+      <c r="F66" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>101</v>
+      </c>
+      <c r="B67" t="s">
+        <v>118</v>
+      </c>
+      <c r="C67" s="1">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="E67" s="1">
+        <f t="shared" si="2"/>
+        <v>3.4722222222223209E-3</v>
+      </c>
+      <c r="F67" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{060FB2EE-2F5B-4F89-B58A-CF4EB7CDCF60}"/>
+    <hyperlink ref="F4" r:id="rId1" xr:uid="{060FB2EE-2F5B-4F89-B58A-CF4EB7CDCF60}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>